--- a/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
+++ b/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Config.Test\excelcfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courage\zcelib.git\src\tools\illusion\template\excelcfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GAME_CFG_1" sheetId="3" r:id="rId1"/>
-    <sheet name="TABLE_CONFIG" sheetId="2" r:id="rId2"/>
-    <sheet name="ENUM_CONFIG" sheetId="1" r:id="rId3"/>
+    <sheet name="GAME_CFG_2" sheetId="4" r:id="rId2"/>
+    <sheet name="TABLE_CONFIG" sheetId="2" r:id="rId3"/>
+    <sheet name="ENUM_CONFIG" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterate="1"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
   <si>
     <t>名称</t>
   </si>
@@ -524,6 +525,18 @@
   </si>
   <si>
     <t>ABCDEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME_CFG_STRUCT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME_CFG_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +738,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,21 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,435 +1080,435 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="31"/>
-    <col min="8" max="8" width="29.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="31" customWidth="1"/>
-    <col min="10" max="13" width="9" style="31"/>
-    <col min="14" max="14" width="21.375" style="31" customWidth="1"/>
-    <col min="15" max="17" width="9" style="31"/>
-    <col min="18" max="18" width="13.375" style="31" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="31"/>
+    <col min="1" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="29.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="16" customWidth="1"/>
+    <col min="10" max="13" width="9" style="16"/>
+    <col min="14" max="14" width="21.375" style="16" customWidth="1"/>
+    <col min="15" max="17" width="9" style="16"/>
+    <col min="18" max="18" width="13.375" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="15">
         <v>12</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="15">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="15">
         <v>3.05</v>
       </c>
-      <c r="G3" s="30" t="b">
+      <c r="G3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="15">
         <v>323</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="15">
         <v>323</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="15">
         <v>323</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="15">
         <v>323</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="15">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="15">
         <v>12</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="15">
         <v>33</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="15">
         <v>13</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="15">
         <v>3.05</v>
       </c>
-      <c r="G4" s="30" t="b">
+      <c r="G4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="15">
         <v>4342</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="15">
         <v>4342</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="15">
         <v>4342</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="15">
         <v>4342</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="15">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="15">
         <v>13</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="15">
         <v>3.05</v>
       </c>
-      <c r="G5" s="30" t="b">
+      <c r="G5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="15">
         <v>51212</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="15">
         <v>51212</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="15">
         <v>51212</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="15">
         <v>51212</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R5" s="30" t="s">
+      <c r="R5" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="15">
         <v>0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="15">
         <v>3</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="15">
         <v>12</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="15">
         <v>13</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="15">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G6" s="30" t="b">
+      <c r="G6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="15">
         <v>1225</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="15">
         <v>1225</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="15">
         <v>1225</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="15">
         <v>1225</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="R6" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="15">
         <v>25</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="15">
         <v>3</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="15">
         <v>25.042999999999999</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="15">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G7" s="30" t="b">
+      <c r="G7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="15">
         <v>212521</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="15">
         <v>212521</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="15">
         <v>212521</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="15">
         <v>212521</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="R7" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="15">
         <v>33</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="15">
         <v>13</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="15">
         <v>13</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="15">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G8" s="30" t="b">
+      <c r="G8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="15">
         <v>178</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="15">
         <v>178</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="15">
         <v>178</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="15">
         <v>178</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="15" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1507,10 +1520,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1524,34 +1550,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
@@ -1657,11 +1683,11 @@
       <c r="C17" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
@@ -1676,9 +1702,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.15">
@@ -1696,7 +1724,9 @@
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1776,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -1797,27 +1827,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D4" s="2"/>
@@ -1826,11 +1856,11 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1922,15 +1952,15 @@
       <c r="D15" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">

--- a/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
+++ b/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GAME_CFG_1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="213">
   <si>
     <t>名称</t>
   </si>
@@ -528,15 +528,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GAME_CFG_STRUCT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格名称</t>
+  </si>
+  <si>
+    <t>s2_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.EXCEL配置文件必须放在excelcfg子目录下，protobuf描述文件子目录下，生产的SQLite3文件会放在db3子目录，日志放在log子目录下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取表格配置</t>
+  </si>
+  <si>
+    <t>表格的第几行描述字段对应的protobuf</t>
+  </si>
+  <si>
+    <t>4.配置表格定义的数据会被读取后转换到SQLite3的数据库文件中，若干个数据表的数据可以放在同一个文件中，当然也可以放在不同的文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格存放的数据库（SQLite）文件名称</t>
+  </si>
+  <si>
+    <t>game_config.db3</t>
+  </si>
+  <si>
+    <t>可以吧多个表配置写入一个文件，文件内部用table id区分数据表。当然一个表一个配置文件也可以。但太多配置文件不利于管理，所以建议合理安排。</t>
+  </si>
+  <si>
+    <t>配置项目</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>表格对应的table id</t>
+  </si>
+  <si>
+    <t>所有配置的表名称，配置，字段，都是一致的，只有table ID不一样，</t>
+  </si>
+  <si>
+    <t>表格数据从第几行读取</t>
+  </si>
+  <si>
+    <t>一般第一个行可以写字段名称，第二行写对应的protobuf的字段，第3行开始写数据，当然你可以自己增加描述信息</t>
+  </si>
+  <si>
+    <t>表格对应的protobuf的message名称</t>
+  </si>
+  <si>
+    <t>GAME_CFG_STRUCT_2</t>
+  </si>
+  <si>
+    <t>表格索引的字段1的列号</t>
+  </si>
+  <si>
+    <t>从1开始</t>
+  </si>
+  <si>
+    <t>表格索引的字段2的列号</t>
+  </si>
+  <si>
+    <t>从1开始，填写为0表示没有第二个索引，（表示只有第一个索引），目前还看不到3个索引的例子。</t>
+  </si>
+  <si>
+    <t>3.读取的表格配置定义如下面的【读取表格配置】表描述，每个表都必须有一个【读取表格配置】表描述，表其中的【表格名称】项里面配置的EXCEL表（sheet）会被读取，【表格名称】项如果为空，会跳过这行，如果读取到一个这个字段，会依次读取后面的表格定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.一个EXCEL文件里面可以配置多个配置表，而每个配置表都对应protobuf的一个message定义，表格（sheet）中的每一行相当与这个message的一个配置项，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.每个配置项目都必须有个索引编号，方便查询，索引编号可以是一列，也可以是两列，都要在【读取表格配置】中【表格索引的字段1的列号】和【表格索引的字段2的列号】配置清楚，如果只有一列索引，【表格索引的字段2的列号】填写为0，所有的记录都索引必须是32bit的（无符号）整数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.SQLite的表格定义如下，供参考。
+CREATE TABLE IF NOT EXISTS config_table_8(index_1 INTEGER,index_2 INTEGER,conf_data BLOB ,last_mod_time INTEGER);
+CREATE UNIQUE INDEX IF NOT EXISTS cfg_table_idx_8 ON config_table_8 (index_1,index_2)
+配置转换为protobuf的二进制数据流后，存放在conf_data BLOB字段。
+index_1 字段对应表格索引1，index2字段对应表格索引2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.每个表都有一个table id标识，这个id表示必须是全局唯一的（至少如果是存放在同一个db3文件的数据表必须区分开），在SQLite的数据文件里面，会以【 config_table_xxx】xxx为table id，的表名存放相应的配置文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.每个表格对应的protobuf描述message 名称要在【表格对应的protobuf的message名称】项目配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.EXCEL表格（sheet）上面几行可以作为各种参考说明的和protobuf field 定义的地方，所以实际的配置数据可以从后面几行开始读取。具体的行号在【表格数据从第几行读取】里面说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格的第几行描述字段对应的protobuf field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.为了对应表格的列数据和protobuf message的field，我们需要在前面几行中的一行中定义列名称，这一行的行号要定义在【表格的第几行描述字段对应的protobuf field】里面填写。如果某列不需要读取（比如中间计算结果，演算结果等），对应的列不填写field name就可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME_CFG_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e.sub_a_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e.sub_a_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e.sub_a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e.sub_a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f.sub_b_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_g.nested_c_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_g.nested_c_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_g.nested_c_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_g.nested_c_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_g.nested_c_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_h.nested_d_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f..nested_d_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_h.nested_d_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_h.nested_d_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄河入海流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更上一层楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲穷千里目，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白日依山尽，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生得意须尽欢，莫使金樽空对月。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君不见，高堂明镜悲白发，朝如青丝暮成雪！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生我材必有用，千金散尽还复来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹羊宰牛且为乐，会须一饮三百杯。</t>
+  </si>
+  <si>
+    <t>岑夫子，丹丘生，将进酒，杯莫停。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与君歌一曲，请君为我倾耳听。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟鼓馔玉不足贵，但愿长醉不复醒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古来圣贤皆寂寞，惟有饮者留其名。
+　　陈王昔时宴平乐，斗酒十千恣欢谑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君不见，黄河之水天上来，奔流到海不复回。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人何为言少钱，径须沽取对君酌。
+五花马、千金裘，呼儿将出换美酒，与尔同销万古愁！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITALY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRCHINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>UNITED_STATES</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
     <t>表格名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +878,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,6 +906,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +1016,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -741,17 +1058,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,13 +1110,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,434 +1428,434 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="16"/>
-    <col min="8" max="8" width="29.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="16" customWidth="1"/>
-    <col min="10" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="21.375" style="16" customWidth="1"/>
-    <col min="15" max="17" width="9" style="16"/>
-    <col min="18" max="18" width="13.375" style="16" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="16"/>
+    <col min="1" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="29.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="10" customWidth="1"/>
+    <col min="10" max="13" width="9" style="10"/>
+    <col min="14" max="14" width="21.375" style="10" customWidth="1"/>
+    <col min="15" max="17" width="9" style="10"/>
+    <col min="18" max="18" width="13.375" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="15">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>12</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>3.05</v>
       </c>
-      <c r="G3" s="15" t="b">
+      <c r="G3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="9">
         <v>323</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="9">
         <v>323</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="9">
         <v>323</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="9">
         <v>323</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="9">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="9">
         <v>33</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="9">
         <v>13</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="9">
         <v>3.05</v>
       </c>
-      <c r="G4" s="15" t="b">
+      <c r="G4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="9">
         <v>4342</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="9">
         <v>4342</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="9">
         <v>4342</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="9">
         <v>4342</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>13</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="9">
         <v>3.05</v>
       </c>
-      <c r="G5" s="15" t="b">
+      <c r="G5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="9">
         <v>51212</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="9">
         <v>51212</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="9">
         <v>51212</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="9">
         <v>51212</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="9">
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>13</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G6" s="15" t="b">
+      <c r="G6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="9">
         <v>1225</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="9">
         <v>1225</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="9">
         <v>1225</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="9">
         <v>1225</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="9">
         <v>25</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>25.042999999999999</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G7" s="15" t="b">
+      <c r="G7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="9">
         <v>212521</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="9">
         <v>212521</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="9">
         <v>212521</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="9">
         <v>212521</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="9">
         <v>33</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="9">
         <v>13</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>13</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="9">
         <v>5.5330000000000004</v>
       </c>
-      <c r="G8" s="15" t="b">
+      <c r="G8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="9">
         <v>178</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="9">
         <v>178</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="9">
         <v>178</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="9">
         <v>178</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1520,285 +1867,1643 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="9.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="15.25" style="15" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="15" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="15" customWidth="1"/>
+    <col min="17" max="17" width="13.25" style="15" customWidth="1"/>
+    <col min="18" max="18" width="17.25" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="18.25" customWidth="1"/>
+    <col min="23" max="23" width="17.125" style="26" customWidth="1"/>
+    <col min="24" max="24" width="18.75" style="26" customWidth="1"/>
+    <col min="25" max="25" width="19.25" style="26" customWidth="1"/>
+    <col min="26" max="26" width="18.5" style="26" customWidth="1"/>
+    <col min="27" max="27" width="17.125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="18.75" style="26" customWidth="1"/>
+    <col min="29" max="29" width="19.25" style="26" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="26" customWidth="1"/>
+    <col min="31" max="31" width="17.125" style="26" customWidth="1"/>
+    <col min="32" max="32" width="18.75" style="26" customWidth="1"/>
+    <col min="33" max="33" width="19.25" style="26" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="26" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="26" customWidth="1"/>
+    <col min="36" max="36" width="18.75" style="26" customWidth="1"/>
+    <col min="37" max="37" width="19.25" style="26" customWidth="1"/>
+    <col min="38" max="38" width="18.5" style="26" customWidth="1"/>
+    <col min="39" max="40" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+    </row>
+    <row r="3" spans="1:40" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+    </row>
+    <row r="4" spans="1:40" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH4" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL4" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM4" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN4" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1212123</v>
+      </c>
+      <c r="E5" s="9">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7</v>
+      </c>
+      <c r="L5" s="9">
+        <v>323</v>
+      </c>
+      <c r="M5" s="9">
+        <v>323</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <v>7</v>
+      </c>
+      <c r="P5" s="22">
+        <v>323</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>323</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9">
+        <v>8</v>
+      </c>
+      <c r="U5" s="27">
+        <v>8</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="27">
+        <v>1</v>
+      </c>
+      <c r="X5" s="27">
+        <v>69853</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>69853</v>
+      </c>
+      <c r="AG5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="27">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM5" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN5" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="27">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9">
+        <v>21</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3.05</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
+        <v>12125</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>8234</v>
+      </c>
+      <c r="N6" s="22">
+        <v>1</v>
+      </c>
+      <c r="O6" s="22">
+        <v>7</v>
+      </c>
+      <c r="P6" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>8234</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27">
+        <v>1</v>
+      </c>
+      <c r="T6" s="27">
+        <v>8</v>
+      </c>
+      <c r="U6" s="27">
+        <v>8</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="W6" s="27">
+        <v>1</v>
+      </c>
+      <c r="X6" s="27">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE6" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="27">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI6" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="27">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN6" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27">
+        <v>441</v>
+      </c>
+      <c r="E7" s="9">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3611</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="9">
+        <v>72304</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4342</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4342</v>
+      </c>
+      <c r="N7" s="22">
+        <v>2</v>
+      </c>
+      <c r="O7" s="22">
+        <v>3</v>
+      </c>
+      <c r="P7" s="22">
+        <v>4342</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>4342</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>8</v>
+      </c>
+      <c r="U7" s="27">
+        <v>8</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="W7" s="27">
+        <v>1</v>
+      </c>
+      <c r="X7" s="27">
+        <v>90365</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>90365</v>
+      </c>
+      <c r="AG7" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN7" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5632</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3</v>
+      </c>
+      <c r="L8" s="9">
+        <v>51212</v>
+      </c>
+      <c r="M8" s="9">
+        <v>51212</v>
+      </c>
+      <c r="N8" s="22">
+        <v>2128</v>
+      </c>
+      <c r="O8" s="22">
+        <v>932</v>
+      </c>
+      <c r="P8" s="22">
+        <v>51212</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>51212</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0</v>
+      </c>
+      <c r="S8" s="27">
+        <v>1</v>
+      </c>
+      <c r="T8" s="27">
+        <v>8</v>
+      </c>
+      <c r="U8" s="27">
+        <v>8</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="W8" s="27">
+        <v>1</v>
+      </c>
+      <c r="X8" s="27">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>5632</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>79</v>
+      </c>
+      <c r="AG8" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="27">
+        <v>5632</v>
+      </c>
+      <c r="AK8" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM8" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN8" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27">
+        <v>347</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
+        <v>13.112299999999999</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="9">
+        <v>79</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1225</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1225</v>
+      </c>
+      <c r="N9" s="22">
+        <v>4</v>
+      </c>
+      <c r="O9" s="22">
+        <v>4</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1225</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>1225</v>
+      </c>
+      <c r="R9" s="27">
+        <v>0</v>
+      </c>
+      <c r="S9" s="27">
+        <v>1</v>
+      </c>
+      <c r="T9" s="27">
+        <v>8</v>
+      </c>
+      <c r="U9" s="27">
+        <v>8</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" s="27">
+        <v>1</v>
+      </c>
+      <c r="X9" s="27">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>25.042999999999999</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2336</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>212521</v>
+      </c>
+      <c r="M10" s="9">
+        <v>212521</v>
+      </c>
+      <c r="N10" s="22">
+        <v>5</v>
+      </c>
+      <c r="O10" s="22">
+        <v>31239</v>
+      </c>
+      <c r="P10" s="22">
+        <v>212521</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>212521</v>
+      </c>
+      <c r="R10" s="27">
+        <v>0</v>
+      </c>
+      <c r="S10" s="27">
+        <v>1</v>
+      </c>
+      <c r="T10" s="27">
+        <v>8</v>
+      </c>
+      <c r="U10" s="27">
+        <v>8</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" s="27">
+        <v>1</v>
+      </c>
+      <c r="X10" s="27">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>2773</v>
+      </c>
+      <c r="AC10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD10" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE10" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="27">
+        <v>13</v>
+      </c>
+      <c r="AG10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH10" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="27">
+        <v>2773</v>
+      </c>
+      <c r="AK10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL10" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN10" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="86.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9">
+        <v>13</v>
+      </c>
+      <c r="D11" s="27">
+        <v>34734</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>83161</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2398008</v>
+      </c>
+      <c r="K11" s="9">
+        <v>6</v>
+      </c>
+      <c r="L11" s="9">
+        <v>178</v>
+      </c>
+      <c r="M11" s="9">
+        <v>178</v>
+      </c>
+      <c r="N11" s="22">
+        <v>6</v>
+      </c>
+      <c r="O11" s="22">
+        <v>6</v>
+      </c>
+      <c r="P11" s="22">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>178</v>
+      </c>
+      <c r="R11" s="27">
+        <v>0</v>
+      </c>
+      <c r="S11" s="27">
+        <v>1</v>
+      </c>
+      <c r="T11" s="27">
+        <v>8</v>
+      </c>
+      <c r="U11" s="27">
+        <v>8</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" s="27">
+        <v>1</v>
+      </c>
+      <c r="X11" s="27">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="27">
+        <v>23</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE11" s="27">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="27">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH11" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI11" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="27">
+        <v>23</v>
+      </c>
+      <c r="AK11" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL11" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN11" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="56.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="10.75" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="42" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="56.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="10.75" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A3" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C18" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="20">
+        <v>3</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="20">
+        <v>2</v>
+      </c>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="20">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="B33" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="20">
+        <v>2</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B35" s="20">
+        <v>5</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="B36" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B37" s="20">
+        <v>4</v>
+      </c>
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="1:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="20">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A40" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="20">
         <v>2</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="C40" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="20">
+        <v>2</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="20">
+        <v>5</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="20">
+        <v>4</v>
+      </c>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="20">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="13">
-        <v>3</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="C53" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A54" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="20">
         <v>2</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="13">
-        <v>2</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="13">
-        <v>1</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C54" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,7 +3515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -1827,27 +3532,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D4" s="2"/>
@@ -1856,11 +3561,11 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1952,15 +3657,15 @@
       <c r="D15" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">

--- a/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
+++ b/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="217">
   <si>
     <t>名称</t>
   </si>
@@ -718,10 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s2_f..nested_d_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s2_h.nested_d_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,6 +817,26 @@
   </si>
   <si>
     <t>表格名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f.sub_b_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f.sub_b_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_f.sub_b_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_h.nested_d_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illusion（イリュージョン）是日本的一家知名十八禁3D游戏制作公司，主要作品有尾行系列、欲望格斗系列、欲望之血系列、人工少女系列及性感沙滩系列等。依照Illusion的规定，它生产的游戏不允许在日本以外的国家或地区销售或使用，官方版本仅支持日语操作系统，并且仅限于在日本使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1968,7 +1984,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
@@ -2034,7 +2050,7 @@
         <v>168</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>169</v>
@@ -2055,25 +2071,25 @@
         <v>176</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>176</v>
+      <c r="O4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>178</v>
@@ -2094,55 +2110,55 @@
         <v>185</v>
       </c>
       <c r="X4" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Z4" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="Z4" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="AA4" s="28" t="s">
         <v>185</v>
       </c>
       <c r="AB4" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AD4" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="AD4" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="AE4" s="28" t="s">
         <v>185</v>
       </c>
       <c r="AF4" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AG4" s="28" t="s">
+      <c r="AH4" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="AH4" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="AI4" s="28" t="s">
         <v>185</v>
       </c>
       <c r="AJ4" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AK4" s="28" t="s">
+      <c r="AL4" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="AL4" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="AM4" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN4" s="28" t="s">
         <v>204</v>
-      </c>
-      <c r="AN4" s="28" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
@@ -2219,10 +2235,10 @@
         <v>69853</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA5" s="27">
         <v>2</v>
@@ -2231,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE5" s="27">
         <v>3</v>
@@ -2243,10 +2259,10 @@
         <v>69853</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI5" s="27">
         <v>4</v>
@@ -2255,19 +2271,19 @@
         <v>7</v>
       </c>
       <c r="AK5" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM5" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AN5" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="258.75" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -2290,7 +2306,9 @@
       <c r="H6" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="J6" s="9">
         <v>12125</v>
       </c>
@@ -2337,10 +2355,10 @@
         <v>7</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA6" s="27">
         <v>2</v>
@@ -2349,10 +2367,10 @@
         <v>7</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE6" s="27">
         <v>3</v>
@@ -2361,10 +2379,10 @@
         <v>7</v>
       </c>
       <c r="AG6" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI6" s="27">
         <v>4</v>
@@ -2373,16 +2391,16 @@
         <v>7</v>
       </c>
       <c r="AK6" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM6" s="27" t="s">
         <v>183</v>
       </c>
       <c r="AN6" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2459,10 +2477,10 @@
         <v>90365</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA7" s="27">
         <v>2</v>
@@ -2471,10 +2489,10 @@
         <v>4</v>
       </c>
       <c r="AC7" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE7" s="27">
         <v>3</v>
@@ -2483,10 +2501,10 @@
         <v>90365</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH7" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI7" s="27">
         <v>4</v>
@@ -2495,16 +2513,16 @@
         <v>4</v>
       </c>
       <c r="AK7" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL7" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM7" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AN7" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2581,10 +2599,10 @@
         <v>79</v>
       </c>
       <c r="Y8" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z8" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="AA8" s="27">
         <v>2</v>
@@ -2593,10 +2611,10 @@
         <v>5632</v>
       </c>
       <c r="AC8" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD8" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="AD8" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="AE8" s="27">
         <v>3</v>
@@ -2605,10 +2623,10 @@
         <v>79</v>
       </c>
       <c r="AG8" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH8" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="AH8" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="AI8" s="27">
         <v>4</v>
@@ -2617,16 +2635,16 @@
         <v>5632</v>
       </c>
       <c r="AK8" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL8" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="AL8" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="AM8" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AN8" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
@@ -2703,10 +2721,10 @@
         <v>4</v>
       </c>
       <c r="Y9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z9" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="AA9" s="27">
         <v>2</v>
@@ -2715,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="AC9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD9" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="AD9" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="AE9" s="27">
         <v>3</v>
@@ -2727,10 +2745,10 @@
         <v>4</v>
       </c>
       <c r="AG9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH9" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="AH9" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="AI9" s="27">
         <v>4</v>
@@ -2739,16 +2757,16 @@
         <v>4</v>
       </c>
       <c r="AK9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL9" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="AL9" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="AM9" s="27" t="s">
         <v>108</v>
       </c>
       <c r="AN9" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2825,10 +2843,10 @@
         <v>13</v>
       </c>
       <c r="Y10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z10" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="Z10" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="AA10" s="27">
         <v>2</v>
@@ -2837,10 +2855,10 @@
         <v>2773</v>
       </c>
       <c r="AC10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD10" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="AD10" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="AE10" s="27">
         <v>3</v>
@@ -2849,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="AG10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH10" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="AH10" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="AI10" s="27">
         <v>4</v>
@@ -2861,16 +2879,16 @@
         <v>2773</v>
       </c>
       <c r="AK10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL10" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="AL10" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="AM10" s="27" t="s">
         <v>107</v>
       </c>
       <c r="AN10" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="86.25" x14ac:dyDescent="0.15">
@@ -2947,10 +2965,10 @@
         <v>12</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA11" s="27">
         <v>2</v>
@@ -2959,10 +2977,10 @@
         <v>23</v>
       </c>
       <c r="AC11" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD11" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE11" s="27">
         <v>3</v>
@@ -2971,10 +2989,10 @@
         <v>12</v>
       </c>
       <c r="AG11" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH11" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI11" s="27">
         <v>4</v>
@@ -2983,16 +3001,16 @@
         <v>23</v>
       </c>
       <c r="AK11" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL11" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM11" s="27" t="s">
         <v>107</v>
       </c>
       <c r="AN11" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3196,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>92</v>

--- a/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
+++ b/src/tools/illusion/template/excelcfg/配置范例表格.xlsx
@@ -670,10 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s2_e.sub_a_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s2_f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,6 +833,10 @@
   </si>
   <si>
     <t>Illusion（イリュージョン）是日本的一家知名十八禁3D游戏制作公司，主要作品有尾行系列、欲望格斗系列、欲望之血系列、人工少女系列及性感沙滩系列等。依照Illusion的规定，它生产的游戏不允许在日本以外的国家或地区销售或使用，官方版本仅支持日语操作系统，并且仅限于在日本使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_e.sub_a_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34" t="s">
@@ -1994,44 +1994,44 @@
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
       <c r="J3" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
       <c r="M3" s="36"/>
       <c r="N3" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
       <c r="U3" s="35"/>
       <c r="V3" s="36"/>
       <c r="W3" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X3" s="35"/>
       <c r="Y3" s="35"/>
       <c r="Z3" s="36"/>
       <c r="AA3" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB3" s="32"/>
       <c r="AC3" s="32"/>
       <c r="AD3" s="33"/>
       <c r="AE3" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF3" s="35"/>
       <c r="AG3" s="35"/>
       <c r="AH3" s="36"/>
       <c r="AI3" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AJ3" s="32"/>
       <c r="AK3" s="32"/>
@@ -2050,7 +2050,7 @@
         <v>168</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>169</v>
@@ -2065,100 +2065,100 @@
         <v>173</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="N4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Y4" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB4" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="W4" s="28" t="s">
+      <c r="AC4" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="X4" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y4" s="28" t="s">
+      <c r="AD4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="Z4" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AE4" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF4" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG4" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AH4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AD4" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE4" s="28" t="s">
+      <c r="AI4" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ4" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK4" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AF4" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG4" s="28" t="s">
+      <c r="AL4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AH4" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI4" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ4" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK4" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL4" s="28" t="s">
-        <v>187</v>
-      </c>
       <c r="AM4" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN4" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="AN4" s="28" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
@@ -2235,10 +2235,10 @@
         <v>69853</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA5" s="27">
         <v>2</v>
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE5" s="27">
         <v>3</v>
@@ -2259,10 +2259,10 @@
         <v>69853</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH5" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI5" s="27">
         <v>4</v>
@@ -2271,16 +2271,16 @@
         <v>7</v>
       </c>
       <c r="AK5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL5" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM5" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AN5" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="258.75" x14ac:dyDescent="0.15">
@@ -2307,7 +2307,7 @@
         <v>120</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J6" s="9">
         <v>12125</v>
@@ -2346,7 +2346,7 @@
         <v>8</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W6" s="27">
         <v>1</v>
@@ -2355,10 +2355,10 @@
         <v>7</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA6" s="27">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>7</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE6" s="27">
         <v>3</v>
@@ -2379,10 +2379,10 @@
         <v>7</v>
       </c>
       <c r="AG6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI6" s="27">
         <v>4</v>
@@ -2391,16 +2391,16 @@
         <v>7</v>
       </c>
       <c r="AK6" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM6" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN6" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2477,10 +2477,10 @@
         <v>90365</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA7" s="27">
         <v>2</v>
@@ -2489,10 +2489,10 @@
         <v>4</v>
       </c>
       <c r="AC7" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE7" s="27">
         <v>3</v>
@@ -2501,10 +2501,10 @@
         <v>90365</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH7" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI7" s="27">
         <v>4</v>
@@ -2513,16 +2513,16 @@
         <v>4</v>
       </c>
       <c r="AK7" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL7" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM7" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AN7" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2599,10 +2599,10 @@
         <v>79</v>
       </c>
       <c r="Y8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="AA8" s="27">
         <v>2</v>
@@ -2611,10 +2611,10 @@
         <v>5632</v>
       </c>
       <c r="AC8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="AD8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="AE8" s="27">
         <v>3</v>
@@ -2623,10 +2623,10 @@
         <v>79</v>
       </c>
       <c r="AG8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="AH8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="AI8" s="27">
         <v>4</v>
@@ -2635,16 +2635,16 @@
         <v>5632</v>
       </c>
       <c r="AK8" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="AL8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="AM8" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AN8" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="34.5" x14ac:dyDescent="0.15">
@@ -2721,10 +2721,10 @@
         <v>4</v>
       </c>
       <c r="Y9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z9" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="AA9" s="27">
         <v>2</v>
@@ -2733,10 +2733,10 @@
         <v>4</v>
       </c>
       <c r="AC9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD9" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="AD9" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="AE9" s="27">
         <v>3</v>
@@ -2745,10 +2745,10 @@
         <v>4</v>
       </c>
       <c r="AG9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH9" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="AH9" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="AI9" s="27">
         <v>4</v>
@@ -2757,16 +2757,16 @@
         <v>4</v>
       </c>
       <c r="AK9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL9" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="AL9" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="AM9" s="27" t="s">
         <v>108</v>
       </c>
       <c r="AN9" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="51.75" x14ac:dyDescent="0.15">
@@ -2843,10 +2843,10 @@
         <v>13</v>
       </c>
       <c r="Y10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z10" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="Z10" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="AA10" s="27">
         <v>2</v>
@@ -2855,10 +2855,10 @@
         <v>2773</v>
       </c>
       <c r="AC10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD10" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="AD10" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="AE10" s="27">
         <v>3</v>
@@ -2867,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="AG10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH10" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="AH10" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="AI10" s="27">
         <v>4</v>
@@ -2879,16 +2879,16 @@
         <v>2773</v>
       </c>
       <c r="AK10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL10" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="AL10" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="AM10" s="27" t="s">
         <v>107</v>
       </c>
       <c r="AN10" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="86.25" x14ac:dyDescent="0.15">
@@ -2965,10 +2965,10 @@
         <v>12</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA11" s="27">
         <v>2</v>
@@ -2977,10 +2977,10 @@
         <v>23</v>
       </c>
       <c r="AC11" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AD11" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE11" s="27">
         <v>3</v>
@@ -2989,10 +2989,10 @@
         <v>12</v>
       </c>
       <c r="AG11" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH11" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI11" s="27">
         <v>4</v>
@@ -3001,16 +3001,16 @@
         <v>23</v>
       </c>
       <c r="AK11" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL11" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM11" s="27" t="s">
         <v>107</v>
       </c>
       <c r="AN11" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>92</v>
@@ -3506,6 +3506,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -3515,13 +3522,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
